--- a/public/files/course_66.xlsx
+++ b/public/files/course_66.xlsx
@@ -34,7 +34,7 @@
     <t>3(3-0-null)</t>
   </si>
   <si>
-    <t>วิชาเฉพาะ</t>
+    <t>วิชาบังคับ</t>
   </si>
 </sst>
 </file>
